--- a/cqc-service-core/src/main/resources/培训信息录入模板.xlsx
+++ b/cqc-service-core/src/main/resources/培训信息录入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17520"/>
+    <workbookView windowWidth="28800" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>姓名</t>
   </si>
@@ -41,6 +41,12 @@
     <t>颁发时间</t>
   </si>
   <si>
+    <t>验证码</t>
+  </si>
+  <si>
+    <t>所属医院</t>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
@@ -60,6 +66,9 @@
   </si>
   <si>
     <t>2022年8月23日</t>
+  </si>
+  <si>
+    <t>Easd321</t>
   </si>
   <si>
     <t>李四</t>
@@ -77,9 +86,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,21 +107,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,6 +128,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -134,6 +159,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -143,7 +184,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,30 +199,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,45 +214,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,37 +252,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,145 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,21 +460,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +490,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,145 +548,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1022,13 +1031,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="34.9642857142857" customWidth="1"/>
     <col min="3" max="3" width="19.9375" customWidth="1"/>
@@ -1037,9 +1046,11 @@
     <col min="6" max="6" width="21.125" customWidth="1"/>
     <col min="7" max="7" width="33.9285714285714" customWidth="1"/>
     <col min="8" max="8" width="20.8303571428571" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.8482142857143" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,6 +1074,12 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="4:8">
@@ -1084,13 +1101,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="27.5267857142857" customWidth="1"/>
@@ -1102,7 +1119,7 @@
     <col min="8" max="8" width="19.4910714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,57 +1144,66 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>18899880099</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>18899007788</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/cqc-service-core/src/main/resources/培训信息录入模板.xlsx
+++ b/cqc-service-core/src/main/resources/培训信息录入模板.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920"/>
+    <workbookView windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="模版" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>姓名</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Easd321</t>
+  </si>
+  <si>
+    <t>复旦大学附属中山医院</t>
   </si>
   <si>
     <t>李四</t>
@@ -85,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,8 +116,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,7 +162,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,14 +188,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,83 +201,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,18 +261,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,37 +411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,115 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,16 +468,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,21 +493,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,27 +531,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,7 +578,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,109 +590,106 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1029,12 +1032,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1099,12 +1102,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1117,9 +1120,10 @@
     <col min="6" max="6" width="24.1071428571429" customWidth="1"/>
     <col min="7" max="7" width="18.8928571428571" customWidth="1"/>
     <col min="8" max="8" width="19.4910714285714" customWidth="1"/>
+    <col min="10" max="10" width="27.5267857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,8 +1151,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1176,16 +1183,19 @@
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>18899007788</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1194,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
@@ -1204,6 +1214,9 @@
       </c>
       <c r="I3" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
